--- a/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-relationships.xlsx
+++ b/docs/attack-excel-files/v18.1/ics-attack/ics-attack-v18.1-relationships.xlsx
@@ -9939,16 +9939,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -9971,7 +9963,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -9979,35 +9971,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10310,43 +10284,43 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -64271,13 +64245,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>2758</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2759</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2760</v>
       </c>
     </row>
@@ -64288,7 +64262,7 @@
       <c r="B2" t="s">
         <v>2922</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3082</v>
       </c>
     </row>
@@ -64299,7 +64273,7 @@
       <c r="B3" t="s">
         <v>2923</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3083</v>
       </c>
     </row>
@@ -64310,7 +64284,7 @@
       <c r="B4" t="s">
         <v>2924</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>3084</v>
       </c>
     </row>
@@ -64321,7 +64295,7 @@
       <c r="B5" t="s">
         <v>2925</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3085</v>
       </c>
     </row>
@@ -64332,7 +64306,7 @@
       <c r="B6" t="s">
         <v>2926</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>3086</v>
       </c>
     </row>
@@ -64343,7 +64317,7 @@
       <c r="B7" t="s">
         <v>2927</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -64354,7 +64328,7 @@
       <c r="B8" t="s">
         <v>2928</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3088</v>
       </c>
     </row>
@@ -64365,7 +64339,7 @@
       <c r="B9" t="s">
         <v>2929</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>3089</v>
       </c>
     </row>
@@ -64376,7 +64350,7 @@
       <c r="B10" t="s">
         <v>2930</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>3090</v>
       </c>
     </row>
@@ -64387,7 +64361,7 @@
       <c r="B11" t="s">
         <v>2931</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>3091</v>
       </c>
     </row>
@@ -64398,7 +64372,7 @@
       <c r="B12" t="s">
         <v>2932</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3092</v>
       </c>
     </row>
@@ -64409,7 +64383,7 @@
       <c r="B13" t="s">
         <v>2933</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>3093</v>
       </c>
     </row>
@@ -64420,7 +64394,7 @@
       <c r="B14" t="s">
         <v>2934</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>3094</v>
       </c>
     </row>
@@ -64431,7 +64405,7 @@
       <c r="B15" t="s">
         <v>2935</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>3095</v>
       </c>
     </row>
@@ -64442,7 +64416,7 @@
       <c r="B16" t="s">
         <v>2936</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>3096</v>
       </c>
     </row>
@@ -64453,7 +64427,7 @@
       <c r="B17" t="s">
         <v>2937</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>3097</v>
       </c>
     </row>
@@ -64464,7 +64438,7 @@
       <c r="B18" t="s">
         <v>2938</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>3098</v>
       </c>
     </row>
@@ -64475,7 +64449,7 @@
       <c r="B19" t="s">
         <v>2939</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>3099</v>
       </c>
     </row>
@@ -64486,7 +64460,7 @@
       <c r="B20" t="s">
         <v>2940</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>3100</v>
       </c>
     </row>
@@ -64497,7 +64471,7 @@
       <c r="B21" t="s">
         <v>2941</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>3101</v>
       </c>
     </row>
@@ -64508,7 +64482,7 @@
       <c r="B22" t="s">
         <v>2942</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>3102</v>
       </c>
     </row>
@@ -64519,7 +64493,7 @@
       <c r="B23" t="s">
         <v>2943</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>3103</v>
       </c>
     </row>
@@ -64530,7 +64504,7 @@
       <c r="B24" t="s">
         <v>2944</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>3104</v>
       </c>
     </row>
@@ -64541,7 +64515,7 @@
       <c r="B25" t="s">
         <v>2945</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>3105</v>
       </c>
     </row>
@@ -64552,7 +64526,7 @@
       <c r="B26" t="s">
         <v>2946</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -64563,7 +64537,7 @@
       <c r="B27" t="s">
         <v>2947</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>3107</v>
       </c>
     </row>
@@ -64574,7 +64548,7 @@
       <c r="B28" t="s">
         <v>2948</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>3108</v>
       </c>
     </row>
@@ -64585,7 +64559,7 @@
       <c r="B29" t="s">
         <v>2949</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>3109</v>
       </c>
     </row>
@@ -64596,7 +64570,7 @@
       <c r="B30" t="s">
         <v>2950</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>3110</v>
       </c>
     </row>
@@ -64607,7 +64581,7 @@
       <c r="B31" t="s">
         <v>2951</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>3111</v>
       </c>
     </row>
@@ -64618,7 +64592,7 @@
       <c r="B32" t="s">
         <v>2952</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>3112</v>
       </c>
     </row>
@@ -64629,7 +64603,7 @@
       <c r="B33" t="s">
         <v>2953</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>3113</v>
       </c>
     </row>
@@ -64640,7 +64614,7 @@
       <c r="B34" t="s">
         <v>2954</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>3114</v>
       </c>
     </row>
@@ -64651,7 +64625,7 @@
       <c r="B35" t="s">
         <v>2955</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>3115</v>
       </c>
     </row>
@@ -64662,7 +64636,7 @@
       <c r="B36" t="s">
         <v>2956</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>3116</v>
       </c>
     </row>
@@ -64673,7 +64647,7 @@
       <c r="B37" t="s">
         <v>2957</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>3117</v>
       </c>
     </row>
@@ -64684,7 +64658,7 @@
       <c r="B38" t="s">
         <v>2958</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>3118</v>
       </c>
     </row>
@@ -64695,7 +64669,7 @@
       <c r="B39" t="s">
         <v>2959</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>3119</v>
       </c>
     </row>
@@ -64706,7 +64680,7 @@
       <c r="B40" t="s">
         <v>2960</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>3120</v>
       </c>
     </row>
@@ -64717,7 +64691,7 @@
       <c r="B41" t="s">
         <v>2961</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>3121</v>
       </c>
     </row>
@@ -64728,7 +64702,7 @@
       <c r="B42" t="s">
         <v>2962</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>3122</v>
       </c>
     </row>
@@ -64739,7 +64713,7 @@
       <c r="B43" t="s">
         <v>2963</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>3123</v>
       </c>
     </row>
@@ -64750,7 +64724,7 @@
       <c r="B44" t="s">
         <v>2964</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>3124</v>
       </c>
     </row>
@@ -64761,7 +64735,7 @@
       <c r="B45" t="s">
         <v>2965</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>3122</v>
       </c>
     </row>
@@ -64772,7 +64746,7 @@
       <c r="B46" t="s">
         <v>2966</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>3125</v>
       </c>
     </row>
@@ -64783,7 +64757,7 @@
       <c r="B47" t="s">
         <v>2967</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>3126</v>
       </c>
     </row>
@@ -64794,7 +64768,7 @@
       <c r="B48" t="s">
         <v>2968</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>3127</v>
       </c>
     </row>
@@ -64805,7 +64779,7 @@
       <c r="B49" t="s">
         <v>2969</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>3128</v>
       </c>
     </row>
@@ -64816,7 +64790,7 @@
       <c r="B50" t="s">
         <v>2970</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>3129</v>
       </c>
     </row>
@@ -64827,7 +64801,7 @@
       <c r="B51" t="s">
         <v>2971</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>3130</v>
       </c>
     </row>
@@ -64838,7 +64812,7 @@
       <c r="B52" t="s">
         <v>2972</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>3131</v>
       </c>
     </row>
@@ -64849,7 +64823,7 @@
       <c r="B53" t="s">
         <v>2973</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>3132</v>
       </c>
     </row>
@@ -64860,7 +64834,7 @@
       <c r="B54" t="s">
         <v>2974</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>3133</v>
       </c>
     </row>
@@ -64871,7 +64845,7 @@
       <c r="B55" t="s">
         <v>2975</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>3087</v>
       </c>
     </row>
@@ -64882,7 +64856,7 @@
       <c r="B56" t="s">
         <v>2976</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>3134</v>
       </c>
     </row>
@@ -64893,7 +64867,7 @@
       <c r="B57" t="s">
         <v>2977</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>3135</v>
       </c>
     </row>
@@ -64904,7 +64878,7 @@
       <c r="B58" t="s">
         <v>2978</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>3136</v>
       </c>
     </row>
@@ -64915,7 +64889,7 @@
       <c r="B59" t="s">
         <v>2979</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>3137</v>
       </c>
     </row>
@@ -64926,7 +64900,7 @@
       <c r="B60" t="s">
         <v>2980</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>3138</v>
       </c>
     </row>
@@ -64937,7 +64911,7 @@
       <c r="B61" t="s">
         <v>2981</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>3139</v>
       </c>
     </row>
@@ -64948,7 +64922,7 @@
       <c r="B62" t="s">
         <v>2982</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>3140</v>
       </c>
     </row>
@@ -64959,7 +64933,7 @@
       <c r="B63" t="s">
         <v>2983</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>3141</v>
       </c>
     </row>
@@ -64970,7 +64944,7 @@
       <c r="B64" t="s">
         <v>2984</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>3142</v>
       </c>
     </row>
@@ -64981,7 +64955,7 @@
       <c r="B65" t="s">
         <v>2985</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>3143</v>
       </c>
     </row>
@@ -64992,7 +64966,7 @@
       <c r="B66" t="s">
         <v>2986</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>3144</v>
       </c>
     </row>
@@ -65003,7 +64977,7 @@
       <c r="B67" t="s">
         <v>2987</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>3090</v>
       </c>
     </row>
@@ -65014,7 +64988,7 @@
       <c r="B68" t="s">
         <v>2988</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>3145</v>
       </c>
     </row>
@@ -65025,7 +64999,7 @@
       <c r="B69" t="s">
         <v>2989</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>3090</v>
       </c>
     </row>
@@ -65036,7 +65010,7 @@
       <c r="B70" t="s">
         <v>2990</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>3146</v>
       </c>
     </row>
@@ -65047,7 +65021,7 @@
       <c r="B71" t="s">
         <v>2991</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>3147</v>
       </c>
     </row>
@@ -65058,7 +65032,7 @@
       <c r="B72" t="s">
         <v>2992</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>3148</v>
       </c>
     </row>
@@ -65069,7 +65043,7 @@
       <c r="B73" t="s">
         <v>2993</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>3149</v>
       </c>
     </row>
@@ -65080,7 +65054,7 @@
       <c r="B74" t="s">
         <v>2994</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>3150</v>
       </c>
     </row>
@@ -65091,7 +65065,7 @@
       <c r="B75" t="s">
         <v>2995</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>3151</v>
       </c>
     </row>
@@ -65102,7 +65076,7 @@
       <c r="B76" t="s">
         <v>2996</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>3152</v>
       </c>
     </row>
@@ -65113,7 +65087,7 @@
       <c r="B77" t="s">
         <v>2997</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>3153</v>
       </c>
     </row>
@@ -65124,7 +65098,7 @@
       <c r="B78" t="s">
         <v>2998</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>3154</v>
       </c>
     </row>
@@ -65135,7 +65109,7 @@
       <c r="B79" t="s">
         <v>2999</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>3155</v>
       </c>
     </row>
@@ -65146,7 +65120,7 @@
       <c r="B80" t="s">
         <v>3000</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>3156</v>
       </c>
     </row>
@@ -65157,7 +65131,7 @@
       <c r="B81" t="s">
         <v>3001</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>3157</v>
       </c>
     </row>
@@ -65168,7 +65142,7 @@
       <c r="B82" t="s">
         <v>3002</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>3158</v>
       </c>
     </row>
@@ -65179,7 +65153,7 @@
       <c r="B83" t="s">
         <v>3003</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>3159</v>
       </c>
     </row>
@@ -65190,7 +65164,7 @@
       <c r="B84" t="s">
         <v>3004</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>3160</v>
       </c>
     </row>
@@ -65201,7 +65175,7 @@
       <c r="B85" t="s">
         <v>3005</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>3161</v>
       </c>
     </row>
@@ -65212,7 +65186,7 @@
       <c r="B86" t="s">
         <v>3006</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>3162</v>
       </c>
     </row>
@@ -65223,7 +65197,7 @@
       <c r="B87" t="s">
         <v>3007</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>3163</v>
       </c>
     </row>
@@ -65234,7 +65208,7 @@
       <c r="B88" t="s">
         <v>3008</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>3164</v>
       </c>
     </row>
@@ -65245,7 +65219,7 @@
       <c r="B89" t="s">
         <v>3009</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>3165</v>
       </c>
     </row>
@@ -65256,7 +65230,7 @@
       <c r="B90" t="s">
         <v>3010</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>3166</v>
       </c>
     </row>
@@ -65267,7 +65241,7 @@
       <c r="B91" t="s">
         <v>3011</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>3167</v>
       </c>
     </row>
@@ -65278,7 +65252,7 @@
       <c r="B92" t="s">
         <v>3012</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>3168</v>
       </c>
     </row>
@@ -65289,7 +65263,7 @@
       <c r="B93" t="s">
         <v>3013</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>3169</v>
       </c>
     </row>
@@ -65300,7 +65274,7 @@
       <c r="B94" t="s">
         <v>3014</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>3170</v>
       </c>
     </row>
@@ -65311,7 +65285,7 @@
       <c r="B95" t="s">
         <v>3015</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>3171</v>
       </c>
     </row>
@@ -65322,7 +65296,7 @@
       <c r="B96" t="s">
         <v>3016</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>3172</v>
       </c>
     </row>
@@ -65333,7 +65307,7 @@
       <c r="B97" t="s">
         <v>3017</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>3173</v>
       </c>
     </row>
@@ -65344,7 +65318,7 @@
       <c r="B98" t="s">
         <v>3018</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>3174</v>
       </c>
     </row>
@@ -65355,7 +65329,7 @@
       <c r="B99" t="s">
         <v>3019</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>3175</v>
       </c>
     </row>
@@ -65366,7 +65340,7 @@
       <c r="B100" t="s">
         <v>3020</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>3176</v>
       </c>
     </row>
@@ -65377,7 +65351,7 @@
       <c r="B101" t="s">
         <v>3021</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>3177</v>
       </c>
     </row>
@@ -65388,7 +65362,7 @@
       <c r="B102" t="s">
         <v>3022</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>3178</v>
       </c>
     </row>
@@ -65399,7 +65373,7 @@
       <c r="B103" t="s">
         <v>3023</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>3179</v>
       </c>
     </row>
@@ -65410,7 +65384,7 @@
       <c r="B104" t="s">
         <v>3024</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>3180</v>
       </c>
     </row>
@@ -65421,7 +65395,7 @@
       <c r="B105" t="s">
         <v>3025</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>3181</v>
       </c>
     </row>
@@ -65432,7 +65406,7 @@
       <c r="B106" t="s">
         <v>3026</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>3182</v>
       </c>
     </row>
@@ -65443,7 +65417,7 @@
       <c r="B107" t="s">
         <v>3027</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>3183</v>
       </c>
     </row>
@@ -65454,7 +65428,7 @@
       <c r="B108" t="s">
         <v>3028</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>3184</v>
       </c>
     </row>
@@ -65465,7 +65439,7 @@
       <c r="B109" t="s">
         <v>3029</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>3185</v>
       </c>
     </row>
@@ -65476,7 +65450,7 @@
       <c r="B110" t="s">
         <v>3030</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>3186</v>
       </c>
     </row>
@@ -65487,7 +65461,7 @@
       <c r="B111" t="s">
         <v>3031</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>3187</v>
       </c>
     </row>
@@ -65498,7 +65472,7 @@
       <c r="B112" t="s">
         <v>3032</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>3188</v>
       </c>
     </row>
@@ -65509,7 +65483,7 @@
       <c r="B113" t="s">
         <v>3033</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>3189</v>
       </c>
     </row>
@@ -65520,7 +65494,7 @@
       <c r="B114" t="s">
         <v>3034</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>3190</v>
       </c>
     </row>
@@ -65531,7 +65505,7 @@
       <c r="B115" t="s">
         <v>3035</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>3191</v>
       </c>
     </row>
@@ -65542,7 +65516,7 @@
       <c r="B116" t="s">
         <v>3036</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>3192</v>
       </c>
     </row>
@@ -65553,7 +65527,7 @@
       <c r="B117" t="s">
         <v>3037</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>3193</v>
       </c>
     </row>
@@ -65564,7 +65538,7 @@
       <c r="B118" t="s">
         <v>3038</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>3194</v>
       </c>
     </row>
@@ -65575,7 +65549,7 @@
       <c r="B119" t="s">
         <v>3039</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>3195</v>
       </c>
     </row>
@@ -65586,7 +65560,7 @@
       <c r="B120" t="s">
         <v>3040</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>3196</v>
       </c>
     </row>
@@ -65597,7 +65571,7 @@
       <c r="B121" t="s">
         <v>3041</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="1" t="s">
         <v>3197</v>
       </c>
     </row>
@@ -65608,7 +65582,7 @@
       <c r="B122" t="s">
         <v>3042</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>3198</v>
       </c>
     </row>
@@ -65619,7 +65593,7 @@
       <c r="B123" t="s">
         <v>3043</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>3199</v>
       </c>
     </row>
@@ -65630,7 +65604,7 @@
       <c r="B124" t="s">
         <v>3044</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>3200</v>
       </c>
     </row>
@@ -65641,7 +65615,7 @@
       <c r="B125" t="s">
         <v>3045</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>3201</v>
       </c>
     </row>
@@ -65652,7 +65626,7 @@
       <c r="B126" t="s">
         <v>3046</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>3202</v>
       </c>
     </row>
@@ -65663,7 +65637,7 @@
       <c r="B127" t="s">
         <v>3047</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>3203</v>
       </c>
     </row>
@@ -65674,7 +65648,7 @@
       <c r="B128" t="s">
         <v>3048</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>3204</v>
       </c>
     </row>
@@ -65685,7 +65659,7 @@
       <c r="B129" t="s">
         <v>3049</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>3205</v>
       </c>
     </row>
@@ -65696,7 +65670,7 @@
       <c r="B130" t="s">
         <v>3050</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>3206</v>
       </c>
     </row>
@@ -65707,7 +65681,7 @@
       <c r="B131" t="s">
         <v>3051</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>3207</v>
       </c>
     </row>
@@ -65718,7 +65692,7 @@
       <c r="B132" t="s">
         <v>3052</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>3208</v>
       </c>
     </row>
@@ -65729,7 +65703,7 @@
       <c r="B133" t="s">
         <v>3053</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>3209</v>
       </c>
     </row>
@@ -65740,7 +65714,7 @@
       <c r="B134" t="s">
         <v>3054</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>3210</v>
       </c>
     </row>
@@ -65751,7 +65725,7 @@
       <c r="B135" t="s">
         <v>3055</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>3211</v>
       </c>
     </row>
@@ -65762,7 +65736,7 @@
       <c r="B136" t="s">
         <v>3056</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>3212</v>
       </c>
     </row>
@@ -65773,7 +65747,7 @@
       <c r="B137" t="s">
         <v>3057</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>3213</v>
       </c>
     </row>
@@ -65784,7 +65758,7 @@
       <c r="B138" t="s">
         <v>3058</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>3214</v>
       </c>
     </row>
@@ -65795,7 +65769,7 @@
       <c r="B139" t="s">
         <v>3059</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>3215</v>
       </c>
     </row>
@@ -65806,7 +65780,7 @@
       <c r="B140" t="s">
         <v>3059</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>3215</v>
       </c>
     </row>
@@ -65817,7 +65791,7 @@
       <c r="B141" t="s">
         <v>3060</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="1" t="s">
         <v>3212</v>
       </c>
     </row>
@@ -65828,7 +65802,7 @@
       <c r="B142" t="s">
         <v>3061</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>3216</v>
       </c>
     </row>
@@ -65839,7 +65813,7 @@
       <c r="B143" t="s">
         <v>3062</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>3217</v>
       </c>
     </row>
@@ -65850,7 +65824,7 @@
       <c r="B144" t="s">
         <v>3063</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>3218</v>
       </c>
     </row>
@@ -65861,7 +65835,7 @@
       <c r="B145" t="s">
         <v>3064</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>3219</v>
       </c>
     </row>
@@ -65872,7 +65846,7 @@
       <c r="B146" t="s">
         <v>3065</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>3220</v>
       </c>
     </row>
@@ -65883,7 +65857,7 @@
       <c r="B147" t="s">
         <v>3066</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>3221</v>
       </c>
     </row>
@@ -65894,7 +65868,7 @@
       <c r="B148" t="s">
         <v>3067</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>3222</v>
       </c>
     </row>
@@ -65905,7 +65879,7 @@
       <c r="B149" t="s">
         <v>3068</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="1" t="s">
         <v>3223</v>
       </c>
     </row>
@@ -65916,7 +65890,7 @@
       <c r="B150" t="s">
         <v>3069</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>3224</v>
       </c>
     </row>
@@ -65927,7 +65901,7 @@
       <c r="B151" t="s">
         <v>3070</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="1" t="s">
         <v>3225</v>
       </c>
     </row>
@@ -65938,7 +65912,7 @@
       <c r="B152" t="s">
         <v>3071</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="1" t="s">
         <v>3226</v>
       </c>
     </row>
@@ -65949,7 +65923,7 @@
       <c r="B153" t="s">
         <v>3072</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="1" t="s">
         <v>3227</v>
       </c>
     </row>
@@ -65960,7 +65934,7 @@
       <c r="B154" t="s">
         <v>3073</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="1" t="s">
         <v>3228</v>
       </c>
     </row>
@@ -65971,7 +65945,7 @@
       <c r="B155" t="s">
         <v>3074</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="1" t="s">
         <v>3229</v>
       </c>
     </row>
@@ -65982,7 +65956,7 @@
       <c r="B156" t="s">
         <v>3075</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="1" t="s">
         <v>3230</v>
       </c>
     </row>
@@ -65993,7 +65967,7 @@
       <c r="B157" t="s">
         <v>3076</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="1" t="s">
         <v>3231</v>
       </c>
     </row>
@@ -66004,7 +65978,7 @@
       <c r="B158" t="s">
         <v>3077</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="1" t="s">
         <v>3232</v>
       </c>
     </row>
@@ -66015,7 +65989,7 @@
       <c r="B159" t="s">
         <v>3078</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="1" t="s">
         <v>3233</v>
       </c>
     </row>
@@ -66026,7 +66000,7 @@
       <c r="B160" t="s">
         <v>3079</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="1" t="s">
         <v>3234</v>
       </c>
     </row>
@@ -66037,7 +66011,7 @@
       <c r="B161" t="s">
         <v>3080</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="1" t="s">
         <v>3235</v>
       </c>
     </row>
@@ -66048,7 +66022,7 @@
       <c r="B162" t="s">
         <v>3081</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="1" t="s">
         <v>3236</v>
       </c>
     </row>
